--- a/apps/featureapi/management/commands/tp.xlsx
+++ b/apps/featureapi/management/commands/tp.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21135" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>feature_name</t>
   </si>
@@ -45,7 +45,44 @@
     <t>int</t>
   </si>
   <si>
-    <t>airfare_sum_12</t>
+    <t>PositiveSignedTypeDefault</t>
+  </si>
+  <si>
+    <t>[("age", "$..content.age", "f_assert_not_null-&gt;f_assert_must_digit_or_float")]</t>
+  </si>
+  <si>
+    <t>"m_get_seq_index_value(0)"</t>
+  </si>
+  <si>
+    <t>application_on</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>StringTypeDefault</t>
+  </si>
+  <si>
+    <r>
+      <t>[("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>application_on_plus</t>
+  </si>
+  <si>
+    <t>[("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring")]</t>
+  </si>
+  <si>
+    <t>apply_register_duration</t>
   </si>
   <si>
     <t>float</t>
@@ -54,34 +91,67 @@
     <t>PositiveSignedFloatTypeDefault</t>
   </si>
   <si>
-    <t>application_on</t>
-  </si>
-  <si>
-    <t>application_on_plus</t>
-  </si>
-  <si>
-    <t>apply_register_duration</t>
+    <r>
+      <t>[("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring"),("registration_on", "$.portrait_data.registration_on", "f_assert_not_null-&gt;f_assert_must_basestring"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>"m_to_slice(0,10)-&gt;f_assert_seq0_gte_seq1-&gt;m_get_mon_sub(2)"</t>
   </si>
   <si>
     <t>car_count</t>
   </si>
   <si>
-    <t>car_number</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>card_id</t>
-  </si>
-  <si>
     <t>cc_bill_age</t>
   </si>
   <si>
-    <t>college_type</t>
-  </si>
-  <si>
-    <t>company_addr_city_level</t>
+    <t>complete_degree</t>
+  </si>
+  <si>
+    <t>creditcard_count</t>
+  </si>
+  <si>
+    <t>dc_bill_age</t>
+  </si>
+  <si>
+    <t>education_degree_code</t>
+  </si>
+  <si>
+    <t>income_level</t>
+  </si>
+  <si>
+    <t>is_loan_agency</t>
+  </si>
+  <si>
+    <t>is_netsky_black</t>
+  </si>
+  <si>
+    <t>is_organization_g_black</t>
+  </si>
+  <si>
+    <t>is_pingan_multi_loan</t>
+  </si>
+  <si>
+    <t>mobile_mark</t>
+  </si>
+  <si>
+    <t>online_time</t>
+  </si>
+  <si>
+    <t>pingan_multi_loan_count</t>
+  </si>
+  <si>
+    <t>overspeed_count</t>
+  </si>
+  <si>
+    <t>overload_count</t>
   </si>
 </sst>
 </file>
@@ -94,12 +164,36 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,8 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,28 +321,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,197 +354,271 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +642,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,21 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -555,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,139 +739,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1083,95 +1291,255 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>12</v>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:1">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/apps/featureapi/management/commands/tp.xlsx
+++ b/apps/featureapi/management/commands/tp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>feature_name</t>
   </si>
@@ -39,7 +39,28 @@
     <t>operator_chain</t>
   </si>
   <si>
-    <t>age</t>
+    <t>application_on</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>StringTypeDefault</t>
+  </si>
+  <si>
+    <t>("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring")</t>
+  </si>
+  <si>
+    <t>m_get_seq_index_value(0)</t>
+  </si>
+  <si>
+    <t>application_on_plus</t>
+  </si>
+  <si>
+    <t>m_datetime_only_hour_minute</t>
+  </si>
+  <si>
+    <t>cc_bill_age</t>
   </si>
   <si>
     <t>int</t>
@@ -48,110 +69,91 @@
     <t>PositiveSignedTypeDefault</t>
   </si>
   <si>
-    <t>[("age", "$..content.age", "f_assert_not_null-&gt;f_assert_must_digit_or_float")]</t>
-  </si>
-  <si>
-    <t>"m_get_seq_index_value(0)"</t>
-  </si>
-  <si>
-    <t>application_on</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>StringTypeDefault</t>
-  </si>
-  <si>
-    <r>
-      <t>[("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)]</t>
-    </r>
-  </si>
-  <si>
-    <t>application_on_plus</t>
-  </si>
-  <si>
-    <t>[("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring")]</t>
-  </si>
-  <si>
-    <t>apply_register_duration</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>PositiveSignedFloatTypeDefault</t>
-  </si>
-  <si>
-    <r>
-      <t>[("application_on", "$.apply_data.application_on", "f_assert_not_null-&gt;f_assert_must_basestring"),("registration_on", "$.portrait_data.registration_on", "f_assert_not_null-&gt;f_assert_must_basestring"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)]</t>
-    </r>
-  </si>
-  <si>
-    <t>"m_to_slice(0,10)-&gt;f_assert_seq0_gte_seq1-&gt;m_get_mon_sub(2)"</t>
-  </si>
-  <si>
-    <t>car_count</t>
-  </si>
-  <si>
-    <t>cc_bill_age</t>
+    <t>("cc_bill_age", "$..result.rrx_once_all.credit_card_account_age", "f_assert_not_null-&gt;f_assert_must_digit")</t>
   </si>
   <si>
     <t>complete_degree</t>
   </si>
   <si>
+    <t>("complete_degree", "$..complete_degree", "f_assert_not_null-&gt;f_assert_must_int")</t>
+  </si>
+  <si>
     <t>creditcard_count</t>
   </si>
   <si>
+    <t>("creditcard_count", "$..result.rrx_once_all.credit_cards_num", "f_assert_not_null-&gt;f_assert_must_digit")</t>
+  </si>
+  <si>
     <t>dc_bill_age</t>
   </si>
   <si>
+    <t>("dc_bill_age", "$..result.rrx_once_all.debit_card_account_age", "f_assert_not_null-&gt;f_assert_must_digit")</t>
+  </si>
+  <si>
     <t>education_degree_code</t>
   </si>
   <si>
+    <t>("education_degree_code", "$..degree", "f_assert_not_null-&gt;f_assert_must_digit")</t>
+  </si>
+  <si>
     <t>income_level</t>
   </si>
   <si>
     <t>is_loan_agency</t>
   </si>
   <si>
+    <t>("is_loan_agency", "$.result", "f_assert_not_null-&gt;f_assert_must_basestring")</t>
+  </si>
+  <si>
+    <t>m_to_bool('00')</t>
+  </si>
+  <si>
     <t>is_netsky_black</t>
   </si>
   <si>
+    <t>("is_netsky_black", "$.result", "f_assert_not_null-&gt;f_assert_must_basestring")</t>
+  </si>
+  <si>
     <t>is_organization_g_black</t>
   </si>
   <si>
+    <t>("is_organization_g_black", "$.result", "f_assert_not_null-&gt;f_assert_must_basestring")</t>
+  </si>
+  <si>
     <t>is_pingan_multi_loan</t>
   </si>
   <si>
+    <t>("is_pingan_multi_loan", "$.result", "f_assert_not_null-&gt;f_assert_must_int")</t>
+  </si>
+  <si>
     <t>mobile_mark</t>
   </si>
   <si>
+    <t>("mobile_mark", "$.tags.contactMain_IMSI1_IMEI1.label", "f_assert_not_null-&gt;f_assert_must_basestring")</t>
+  </si>
+  <si>
     <t>online_time</t>
   </si>
   <si>
     <t>pingan_multi_loan_count</t>
   </si>
   <si>
+    <t>("pingan_multi_loan_count", "$..orgNums", "f_assert_not_null-&gt;f_assert_must_digit")</t>
+  </si>
+  <si>
+    <t>m_to_int-&gt;m_to_sum</t>
+  </si>
+  <si>
     <t>overspeed_count</t>
   </si>
   <si>
+    <t>("overspeed_count", "$..month_times", "f_not_null-&gt;f_assert_must_digit")</t>
+  </si>
+  <si>
     <t>overload_count</t>
+  </si>
+  <si>
+    <t>("overload_count", "$..month_times", "f_not_null-&gt;f_assert_must_digit")</t>
   </si>
 </sst>
 </file>
@@ -159,12 +161,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,31 +186,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.5"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Consolas"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,15 +226,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,38 +241,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,66 +299,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +607,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,15 +636,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,17 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +679,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -701,24 +704,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,166 +724,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1253,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1265,7 +1241,7 @@
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1281,7 +1257,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1292,7 +1268,7 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1301,165 +1277,189 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" ht="18" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:1">
-      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1467,79 +1467,67 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="11" t="s">
-        <v>33</v>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+      <c r="A17" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:3">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:3">
-      <c r="A21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/apps/featureapi/management/commands/tp.xlsx
+++ b/apps/featureapi/management/commands/tp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>feature_name</t>
   </si>
@@ -57,6 +57,9 @@
     <t>application_on_plus</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>m_datetime_only_hour_minute</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>("education_degree_code", "$..degree", "f_assert_not_null-&gt;f_assert_must_digit")</t>
+  </si>
+  <si>
+    <t>m_get_seq_index_value(0)-&gt;m_datetime_only_hour_minute</t>
   </si>
   <si>
     <t>income_level</t>
@@ -161,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -186,8 +192,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -204,6 +232,61 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,120 +300,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,199 +351,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,24 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -636,6 +618,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,21 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -704,6 +686,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -873,10 +873,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1289,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1298,21 +1298,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1320,16 +1320,16 @@
     </row>
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1354,16 +1354,16 @@
     </row>
     <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1371,95 +1371,97 @@
     </row>
     <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" ht="16.5" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1468,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1476,58 +1478,58 @@
     </row>
     <row r="15" ht="16.5" spans="1:1">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/apps/featureapi/management/commands/tp.xlsx
+++ b/apps/featureapi/management/commands/tp.xlsx
@@ -60,7 +60,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>m_datetime_only_hour_minute</t>
+    <t>m_get_seq_index_value(0)-&gt;m_datetime_only_hour_minute</t>
   </si>
   <si>
     <t>cc_bill_age</t>
@@ -99,7 +99,7 @@
     <t>("education_degree_code", "$..degree", "f_assert_not_null-&gt;f_assert_must_digit")</t>
   </si>
   <si>
-    <t>m_get_seq_index_value(0)-&gt;m_datetime_only_hour_minute</t>
+    <t>m_to_int-&gt;m_single_check_code(education_degree_code)</t>
   </si>
   <si>
     <t>income_level</t>
@@ -111,7 +111,7 @@
     <t>("is_loan_agency", "$.result", "f_assert_not_null-&gt;f_assert_must_basestring")</t>
   </si>
   <si>
-    <t>m_to_bool('00')</t>
+    <t>m_to_bool(['00'])</t>
   </si>
   <si>
     <t>is_netsky_black</t>
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,13 +189,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,9 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +314,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,21 +632,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -696,6 +681,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -712,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,103 +724,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,32 +835,26 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +872,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1232,7 +1229,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1382,17 +1379,17 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
@@ -1409,7 +1406,7 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
@@ -1426,7 +1423,7 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
@@ -1443,7 +1440,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
@@ -1477,7 +1474,7 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1499,7 +1496,7 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B17" t="s">
@@ -1516,7 +1513,7 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
